--- a/Documentation/Glossaire.xlsx
+++ b/Documentation/Glossaire.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11880" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11880"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="174">
   <si>
     <t>Unity</t>
   </si>
@@ -1181,6 +1181,45 @@
   </si>
   <si>
     <t>cifteli</t>
+  </si>
+  <si>
+    <t>Sprint</t>
+  </si>
+  <si>
+    <t>Merge</t>
+  </si>
+  <si>
+    <t>Colaborate</t>
+  </si>
+  <si>
+    <t>Mesh</t>
+  </si>
+  <si>
+    <t>SVG</t>
+  </si>
+  <si>
+    <t>ANSI</t>
+  </si>
+  <si>
+    <t>IEL</t>
+  </si>
+  <si>
+    <t>DIN</t>
+  </si>
+  <si>
+    <t>PNG</t>
+  </si>
+  <si>
+    <t>Input</t>
+  </si>
+  <si>
+    <t>Output</t>
+  </si>
+  <si>
+    <t>Line Renderer</t>
+  </si>
+  <si>
+    <t>Collider</t>
   </si>
 </sst>
 </file>
@@ -1686,10 +1725,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B67"/>
+  <dimension ref="A1:B81"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="A55" sqref="A55"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="B75" sqref="B75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2172,6 +2211,76 @@
       </c>
       <c r="B67" t="s">
         <v>89</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>173</v>
       </c>
     </row>
   </sheetData>
@@ -2192,7 +2301,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>

--- a/Documentation/Glossaire.xlsx
+++ b/Documentation/Glossaire.xlsx
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="180">
   <si>
     <t>Unity</t>
   </si>
@@ -1220,6 +1220,24 @@
   </si>
   <si>
     <t>Collider</t>
+  </si>
+  <si>
+    <t>Serializer</t>
+  </si>
+  <si>
+    <t>Long</t>
+  </si>
+  <si>
+    <t>Array</t>
+  </si>
+  <si>
+    <t>Bytes</t>
+  </si>
+  <si>
+    <t>Çifteli</t>
+  </si>
+  <si>
+    <t>done</t>
   </si>
 </sst>
 </file>
@@ -1725,10 +1743,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B81"/>
+  <dimension ref="A1:B86"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="B75" sqref="B75"/>
+      <selection activeCell="B88" sqref="B88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2281,6 +2299,31 @@
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>173</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -2299,10 +2342,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2310,22 +2353,31 @@
     <col min="1" max="1" width="16.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>159</v>
       </c>

--- a/Documentation/Glossaire.xlsx
+++ b/Documentation/Glossaire.xlsx
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="217">
   <si>
     <t>Unity</t>
   </si>
@@ -1138,12 +1138,6 @@
     <t>Solution intuitive et complète de gestion de projet Git.</t>
   </si>
   <si>
-    <t>webgiciel</t>
-  </si>
-  <si>
-    <t>Drawi.io</t>
-  </si>
-  <si>
     <t>Coolors.co</t>
   </si>
   <si>
@@ -1238,6 +1232,123 @@
   </si>
   <si>
     <t>done</t>
+  </si>
+  <si>
+    <t>Norme visuelle de portes logiques. Aussi dite "Américaine".</t>
+  </si>
+  <si>
+    <t>Tableau en programmation.</t>
+  </si>
+  <si>
+    <t>Plan de construction.</t>
+  </si>
+  <si>
+    <t>Originellement ensemble de 8 bits. Représente également des fichier sous forme hexacédimale.</t>
+  </si>
+  <si>
+    <t>Convention de nommage.</t>
+  </si>
+  <si>
+    <t>Petite guitare traditionnelle albanaise.</t>
+  </si>
+  <si>
+    <t>Plugin d'Unity permettant de synchroniser les différentes version d'un projet collaboratif.</t>
+  </si>
+  <si>
+    <t>Component Unity permettant de détecter les collisions.</t>
+  </si>
+  <si>
+    <t>Site Internet permettant de générer des palettes de couleur.</t>
+  </si>
+  <si>
+    <t>Prendre un fichier et récupérer ses données.</t>
+  </si>
+  <si>
+    <t>Norme visuelle de portes logiques. Aussi dite "Internationale".</t>
+  </si>
+  <si>
+    <t>Draw.io</t>
+  </si>
+  <si>
+    <t>Webgiciel permettant de créer des schémas en tous genre.</t>
+  </si>
+  <si>
+    <t>Application de planification GANTT.</t>
+  </si>
+  <si>
+    <t>Site Internet servant à consulter et manager des dépôts Git.</t>
+  </si>
+  <si>
+    <t>Plugin permettant d'utiliser GitHub directement sur Unity.</t>
+  </si>
+  <si>
+    <t>Language de programmation destiné à développer des shaders.</t>
+  </si>
+  <si>
+    <t>Norme visuelle de portes logiques. Aussi dite "Européenne".</t>
+  </si>
+  <si>
+    <t>Entrée d'un circuit, d'une porte logique ou d'un composant.</t>
+  </si>
+  <si>
+    <t>Site web permettant de générer des logos.</t>
+  </si>
+  <si>
+    <t>Format de fichier permettant de structurer des données.</t>
+  </si>
+  <si>
+    <t>Component Unity permettant d'effectuer le rendu de lignes en tous genres.</t>
+  </si>
+  <si>
+    <t>Data type représentant un nombre entier codé sur 64-bits.</t>
+  </si>
+  <si>
+    <t>Fait de joindre deux branches (versions) d'un Git</t>
+  </si>
+  <si>
+    <t>Maillage, ce qui compose les objets 3D.</t>
+  </si>
+  <si>
+    <t>Site internet donnant accès gratuitement à des milliers de dessins et d'icônes.</t>
+  </si>
+  <si>
+    <t>Sortie d'un circuit, d'une porte logique ou d'un composant.</t>
+  </si>
+  <si>
+    <t>Logiciel ou partie d'un logiciel s'occupant de découper un texte en entrée et d'en sortir les informations nécessaires.</t>
+  </si>
+  <si>
+    <t>Webgiciel similaire à Photoshop.</t>
+  </si>
+  <si>
+    <t>Format d'image.</t>
+  </si>
+  <si>
+    <t>Application ou partie d'une application permettant de transformer des données complexes en parties plus simple et compréhensibles par l'ordinateur.</t>
+  </si>
+  <si>
+    <t>Application permettant de faire du Git.</t>
+  </si>
+  <si>
+    <t>Concept agile regroupant un certain nombre de fonctionnalités à faire sur une courte durée.</t>
+  </si>
+  <si>
+    <t>Suite de logiciels bureautique.</t>
+  </si>
+  <si>
+    <t>Format d'images vectorielles.</t>
+  </si>
+  <si>
+    <t>Table permettant de connaître le comportement d'un composant logique.</t>
+  </si>
+  <si>
+    <t>Méthode permettant de garder la trace des différentes version d'un logiciel.</t>
+  </si>
+  <si>
+    <t>Webgiciel</t>
+  </si>
+  <si>
+    <t>Application web.</t>
   </si>
 </sst>
 </file>
@@ -1743,10 +1854,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B86"/>
+  <dimension ref="A1:B85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="B88" sqref="B88"/>
+    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1797,538 +1908,647 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>2</v>
+        <v>164</v>
       </c>
       <c r="B6" t="s">
-        <v>43</v>
+        <v>178</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>3</v>
+        <v>174</v>
       </c>
       <c r="B7" t="s">
-        <v>44</v>
+        <v>179</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>137</v>
+        <v>3</v>
+      </c>
+      <c r="B9" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>139</v>
+        <v>137</v>
+      </c>
+      <c r="B11" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>46</v>
+        <v>175</v>
       </c>
       <c r="B12" t="s">
-        <v>47</v>
+        <v>181</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>34</v>
+        <v>139</v>
       </c>
       <c r="B14" t="s">
-        <v>52</v>
+        <v>182</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>148</v>
+        <v>176</v>
+      </c>
+      <c r="B15" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>155</v>
+        <v>46</v>
       </c>
       <c r="B16" t="s">
-        <v>156</v>
+        <v>47</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>136</v>
+        <v>161</v>
+      </c>
+      <c r="B17" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>147</v>
+        <v>171</v>
+      </c>
+      <c r="B18" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>71</v>
+        <v>1</v>
       </c>
       <c r="B19" t="s">
-        <v>73</v>
+        <v>51</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="B20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>149</v>
+        <v>146</v>
+      </c>
+      <c r="B21" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>36</v>
+        <v>153</v>
       </c>
       <c r="B22" t="s">
-        <v>54</v>
+        <v>154</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="B23" t="s">
-        <v>145</v>
+        <v>187</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>37</v>
+        <v>166</v>
       </c>
       <c r="B24" t="s">
-        <v>55</v>
+        <v>188</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>37</v>
+        <v>189</v>
+      </c>
+      <c r="B25" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>144</v>
+        <v>71</v>
+      </c>
+      <c r="B26" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B27" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>138</v>
+        <v>147</v>
+      </c>
+      <c r="B28" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="B29" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>153</v>
+        <v>143</v>
+      </c>
+      <c r="B30" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>134</v>
+        <v>37</v>
+      </c>
+      <c r="B31" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B32" t="s">
-        <v>56</v>
+        <v>192</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>59</v>
+        <v>144</v>
       </c>
       <c r="B33" t="s">
-        <v>60</v>
+        <v>193</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="B34" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>13</v>
+        <v>138</v>
       </c>
       <c r="B35" t="s">
-        <v>58</v>
+        <v>194</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>25</v>
+        <v>165</v>
       </c>
       <c r="B36" t="s">
-        <v>61</v>
+        <v>195</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>32</v>
+        <v>168</v>
       </c>
       <c r="B37" t="s">
-        <v>63</v>
+        <v>196</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="B38" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>22</v>
+        <v>151</v>
       </c>
       <c r="B39" t="s">
-        <v>64</v>
+        <v>197</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>150</v>
+        <v>134</v>
+      </c>
+      <c r="B40" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="B41" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>24</v>
+        <v>170</v>
       </c>
       <c r="B42" t="s">
-        <v>66</v>
+        <v>199</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>135</v>
+        <v>59</v>
+      </c>
+      <c r="B43" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>140</v>
+        <v>173</v>
+      </c>
+      <c r="B44" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>151</v>
+        <v>31</v>
+      </c>
+      <c r="B45" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>17</v>
+        <v>160</v>
       </c>
       <c r="B46" t="s">
-        <v>69</v>
+        <v>201</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>9</v>
+        <v>162</v>
       </c>
       <c r="B47" t="s">
-        <v>70</v>
+        <v>202</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="B48" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="B49" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B50" t="s">
-        <v>83</v>
+        <v>63</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="B51" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="B52" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>15</v>
+        <v>148</v>
       </c>
       <c r="B53" t="s">
-        <v>86</v>
+        <v>203</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="B54" t="s">
-        <v>87</v>
+        <v>65</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="B55" t="s">
-        <v>88</v>
+        <v>66</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>6</v>
+        <v>169</v>
       </c>
       <c r="B56" t="s">
-        <v>77</v>
+        <v>204</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>142</v>
+        <v>135</v>
+      </c>
+      <c r="B57" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>16</v>
+        <v>140</v>
       </c>
       <c r="B58" t="s">
-        <v>78</v>
+        <v>182</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>152</v>
+        <v>149</v>
+      </c>
+      <c r="B59" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>154</v>
+        <v>167</v>
+      </c>
+      <c r="B60" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B61" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="B62" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="B63" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>141</v>
+        <v>5</v>
+      </c>
+      <c r="B64" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>146</v>
+        <v>38</v>
+      </c>
+      <c r="B65" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="B66" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>21</v>
+        <v>172</v>
       </c>
       <c r="B67" t="s">
-        <v>89</v>
+        <v>208</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>161</v>
+        <v>12</v>
+      </c>
+      <c r="B68" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>162</v>
+        <v>15</v>
+      </c>
+      <c r="B69" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>163</v>
+        <v>33</v>
+      </c>
+      <c r="B70" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>164</v>
+        <v>7</v>
+      </c>
+      <c r="B71" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>165</v>
+        <v>6</v>
+      </c>
+      <c r="B72" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>27</v>
+        <v>142</v>
+      </c>
+      <c r="B73" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>166</v>
+        <v>159</v>
+      </c>
+      <c r="B74" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>167</v>
+        <v>16</v>
+      </c>
+      <c r="B75" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>168</v>
+        <v>150</v>
+      </c>
+      <c r="B76" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>169</v>
+        <v>163</v>
+      </c>
+      <c r="B77" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>170</v>
+        <v>152</v>
+      </c>
+      <c r="B78" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>171</v>
+        <v>29</v>
+      </c>
+      <c r="B79" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="B80" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="B81" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+      <c r="B82" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+        <v>215</v>
+      </c>
+      <c r="B83" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+      <c r="B84" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
-        <v>178</v>
+        <v>21</v>
+      </c>
+      <c r="B85" t="s">
+        <v>89</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:B42">
-    <sortState ref="A2:B67">
+    <sortState ref="A2:B86">
       <sortCondition ref="A1:A42"/>
     </sortState>
   </autoFilter>
@@ -2355,31 +2575,31 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>
